--- a/results/tables/statistical/kappa_analysis.xlsx
+++ b/results/tables/statistical/kappa_analysis.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,33 +25,16 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b val="1"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <sz val="10"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004472C4"/>
-        <bgColor rgb="004472C4"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -59,33 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -451,130 +413,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="23" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="17" customWidth="1" min="4" max="4"/>
-  </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Overall Accuracy (%)</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Kappa Coefficient</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Interpretation</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>RESNET18</t>
-        </is>
-      </c>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>77.14</t>
-        </is>
-      </c>
-      <c r="C2" s="5" t="inlineStr">
-        <is>
-          <t>0.5338</t>
-        </is>
-      </c>
-      <c r="D2" s="5" t="inlineStr">
-        <is>
-          <t>Moderate</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>RESNET34</t>
-        </is>
-      </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>76.78</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>0.5266</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>Moderate</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>RESNET101</t>
-        </is>
-      </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>77.23</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>0.5409</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>Moderate</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>RESNET152</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>76.78</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>0.5312</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>Moderate</t>
-        </is>
-      </c>
-    </row>
+    <row r="1" ht="25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/tables/statistical/kappa_analysis.xlsx
+++ b/results/tables/statistical/kappa_analysis.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,16 +25,46 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="10"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002C3E50"/>
+        <bgColor rgb="002C3E50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ECF0F1"/>
+        <bgColor rgb="00ECF0F1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -42,12 +72,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,15 +476,130 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="23" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1"/>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Overall Accuracy (%)</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Kappa Coefficient</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Interpretation</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>RESNET18</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>77.140</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>0.534</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>RESNET34</t>
+        </is>
+      </c>
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>76.785</t>
+        </is>
+      </c>
+      <c r="C3" s="7" t="inlineStr">
+        <is>
+          <t>0.527</t>
+        </is>
+      </c>
+      <c r="D3" s="7" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>RESNET101</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>77.235</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>0.541</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>RESNET152</t>
+        </is>
+      </c>
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>76.775</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>0.531</t>
+        </is>
+      </c>
+      <c r="D5" s="7" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/tables/statistical/kappa_analysis.xlsx
+++ b/results/tables/statistical/kappa_analysis.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,7 +484,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="1" max="1"/>
     <col width="23" customWidth="1" min="2" max="2"/>
     <col width="20" customWidth="1" min="3" max="3"/>
     <col width="17" customWidth="1" min="4" max="4"/>
@@ -515,17 +515,17 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>RESNET18</t>
+          <t>CONVNEXT_TINY</t>
         </is>
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>77.140</t>
+          <t>79.135</t>
         </is>
       </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
-          <t>0.534</t>
+          <t>0.578</t>
         </is>
       </c>
       <c r="D2" s="5" t="inlineStr">
@@ -537,17 +537,17 @@
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>RESNET34</t>
+          <t>DENSENET121</t>
         </is>
       </c>
       <c r="B3" s="7" t="inlineStr">
         <is>
-          <t>76.785</t>
+          <t>78.845</t>
         </is>
       </c>
       <c r="C3" s="7" t="inlineStr">
         <is>
-          <t>0.527</t>
+          <t>0.571</t>
         </is>
       </c>
       <c r="D3" s="7" t="inlineStr">
@@ -559,17 +559,17 @@
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>RESNET101</t>
+          <t>EFFICIENTNET_B3</t>
         </is>
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>77.235</t>
+          <t>78.330</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>0.541</t>
+          <t>0.554</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
@@ -581,20 +581,42 @@
     <row r="5">
       <c r="A5" s="6" t="inlineStr">
         <is>
-          <t>RESNET152</t>
+          <t>RESNET50</t>
         </is>
       </c>
       <c r="B5" s="7" t="inlineStr">
         <is>
-          <t>76.775</t>
+          <t>78.640</t>
         </is>
       </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
-          <t>0.531</t>
+          <t>0.566</t>
         </is>
       </c>
       <c r="D5" s="7" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>SWIN_TINY</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>79.540</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>0.587</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>Moderate</t>
         </is>
